--- a/data/negative_signals/Indirectly connected (A-X-B) - Timolol - pancytopenia.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Timolol - pancytopenia.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="633">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,52 +173,640 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>4027545</t>
+  </si>
+  <si>
+    <t>pancytopenia</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>3764410</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>60615651</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>55036538</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>54406790</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>52955390</t>
+  </si>
+  <si>
+    <t>58647800</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>52570385</t>
+  </si>
+  <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>92680834</t>
+  </si>
+  <si>
+    <t>52535073</t>
+  </si>
+  <si>
+    <t>476523</t>
+  </si>
+  <si>
+    <t>cardiovascular diseases</t>
+  </si>
+  <si>
+    <t>16692349</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>112150673</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>4028728</t>
+  </si>
+  <si>
+    <t>house mice</t>
+  </si>
+  <si>
+    <t>5701245</t>
+  </si>
+  <si>
+    <t>68733001</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>67899416</t>
+  </si>
+  <si>
+    <t>62965091</t>
+  </si>
+  <si>
+    <t>67898646</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>70281265</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>51806605</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>54280695</t>
+  </si>
+  <si>
+    <t>54281248</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>70348078</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>76968918</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>77329708</t>
+  </si>
+  <si>
+    <t>59675823</t>
+  </si>
+  <si>
+    <t>16238799</t>
+  </si>
+  <si>
+    <t>3170822</t>
+  </si>
+  <si>
+    <t>acetazolamide</t>
+  </si>
+  <si>
+    <t>95933018</t>
+  </si>
+  <si>
+    <t>65108182</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>52196737</t>
+  </si>
+  <si>
+    <t>93242323</t>
+  </si>
+  <si>
+    <t>52196853</t>
+  </si>
+  <si>
+    <t>119057068</t>
+  </si>
+  <si>
+    <t>52196034</t>
+  </si>
+  <si>
+    <t>85096434</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>12962796</t>
+  </si>
+  <si>
+    <t>281347</t>
+  </si>
+  <si>
+    <t>long-term care</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>52231261</t>
+  </si>
+  <si>
+    <t>129618903</t>
+  </si>
+  <si>
+    <t>736321</t>
+  </si>
+  <si>
+    <t>cimetidine</t>
+  </si>
+  <si>
+    <t>68284801</t>
+  </si>
+  <si>
+    <t>14240457</t>
+  </si>
+  <si>
+    <t>70810501</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>5699121</t>
+  </si>
+  <si>
+    <t>body weight decreased</t>
+  </si>
+  <si>
+    <t>16697789</t>
+  </si>
+  <si>
+    <t>66800148</t>
+  </si>
+  <si>
+    <t>42233</t>
+  </si>
+  <si>
+    <t>thrombosis</t>
+  </si>
+  <si>
+    <t>16697540</t>
+  </si>
+  <si>
+    <t>104663319</t>
+  </si>
+  <si>
+    <t>101697415</t>
+  </si>
+  <si>
+    <t>4047758</t>
+  </si>
+  <si>
+    <t>indapamide</t>
+  </si>
+  <si>
+    <t>56312682</t>
+  </si>
+  <si>
+    <t>56312743</t>
+  </si>
+  <si>
+    <t>12992409</t>
+  </si>
+  <si>
+    <t>399716</t>
+  </si>
+  <si>
+    <t>lethargy</t>
+  </si>
+  <si>
+    <t>16695249</t>
+  </si>
+  <si>
+    <t>94668059</t>
+  </si>
+  <si>
+    <t>2422008</t>
+  </si>
+  <si>
+    <t>diamox</t>
+  </si>
+  <si>
+    <t>67135645</t>
+  </si>
+  <si>
+    <t>67135887</t>
+  </si>
+  <si>
+    <t>12962802</t>
+  </si>
+  <si>
+    <t>130253</t>
+  </si>
+  <si>
+    <t>acidosis</t>
+  </si>
+  <si>
+    <t>16691910</t>
+  </si>
+  <si>
+    <t>90638074</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>56539846</t>
+  </si>
+  <si>
+    <t>56380168</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>59101588</t>
+  </si>
+  <si>
+    <t>59359543</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>119719082</t>
+  </si>
+  <si>
+    <t>73878827</t>
+  </si>
+  <si>
+    <t>68136398</t>
+  </si>
+  <si>
+    <t>89112718</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>75579643</t>
+  </si>
+  <si>
+    <t>65065710</t>
+  </si>
+  <si>
+    <t>51487131</t>
+  </si>
+  <si>
+    <t>104112611</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>52829538</t>
+  </si>
+  <si>
+    <t>53281010</t>
+  </si>
+  <si>
+    <t>54743153</t>
+  </si>
+  <si>
+    <t>60640908</t>
+  </si>
+  <si>
+    <t>61989647</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>127496138</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>60338720</t>
+  </si>
+  <si>
+    <t>85435738</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>75559569</t>
+  </si>
+  <si>
+    <t>72728949</t>
+  </si>
+  <si>
+    <t>83081239</t>
+  </si>
+  <si>
+    <t>98663005</t>
+  </si>
+  <si>
+    <t>6107559</t>
+  </si>
+  <si>
+    <t>application procedure</t>
+  </si>
+  <si>
+    <t>55340297</t>
+  </si>
+  <si>
+    <t>109621171</t>
+  </si>
+  <si>
+    <t>4394972</t>
+  </si>
+  <si>
+    <t>neutrophil elastase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>8733871</t>
+  </si>
+  <si>
+    <t>does not inhibit</t>
+  </si>
+  <si>
+    <t>108683002</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
     <t>133368</t>
   </si>
   <si>
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>4027545</t>
-  </si>
-  <si>
-    <t>pancytopenia</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>134040308</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>68930507</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>117491569</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>199441321</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>129696812</t>
-  </si>
-  <si>
-    <t>affects</t>
+    <t>67628970</t>
+  </si>
+  <si>
+    <t>51293460</t>
+  </si>
+  <si>
+    <t>63230339</t>
+  </si>
+  <si>
+    <t>133248817</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>68705273</t>
+  </si>
+  <si>
+    <t>59243402</t>
+  </si>
+  <si>
+    <t>58977987</t>
+  </si>
+  <si>
+    <t>51894344</t>
+  </si>
+  <si>
+    <t>87130161</t>
+  </si>
+  <si>
+    <t>106883368</t>
+  </si>
+  <si>
+    <t>83217344</t>
+  </si>
+  <si>
+    <t>66568731</t>
+  </si>
+  <si>
+    <t>80859087</t>
+  </si>
+  <si>
+    <t>73630834</t>
+  </si>
+  <si>
+    <t>does not stimulate</t>
+  </si>
+  <si>
+    <t>59883908</t>
+  </si>
+  <si>
+    <t>54035200</t>
+  </si>
+  <si>
+    <t>58202217</t>
+  </si>
+  <si>
+    <t>102012761</t>
+  </si>
+  <si>
+    <t>60889836</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>120628421</t>
+  </si>
+  <si>
+    <t>65107401</t>
+  </si>
+  <si>
+    <t>132074659</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>117371289</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>70677234</t>
+  </si>
+  <si>
+    <t>62467496</t>
+  </si>
+  <si>
+    <t>58071013</t>
+  </si>
+  <si>
+    <t>685378</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>60392957</t>
+  </si>
+  <si>
+    <t>103790627</t>
+  </si>
+  <si>
+    <t>52670484</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>54206160</t>
+  </si>
+  <si>
+    <t>52456932</t>
+  </si>
+  <si>
+    <t>4040981</t>
+  </si>
+  <si>
+    <t>pharmacotherapy</t>
+  </si>
+  <si>
+    <t>108742582</t>
+  </si>
+  <si>
+    <t>83354991</t>
+  </si>
+  <si>
+    <t>55050913</t>
+  </si>
+  <si>
+    <t>58464452</t>
+  </si>
+  <si>
+    <t>4747186</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>119083309</t>
+  </si>
+  <si>
+    <t>104833980</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>52273346</t>
+  </si>
+  <si>
+    <t>120217135</t>
   </si>
   <si>
     <t>4027653</t>
@@ -227,55 +815,322 @@
     <t>patients</t>
   </si>
   <si>
-    <t>117972714</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>130661710</t>
+    <t>64247292</t>
   </si>
   <si>
     <t>is not administered to</t>
   </si>
   <si>
-    <t>117590347</t>
-  </si>
-  <si>
-    <t>136456680</t>
+    <t>51753509</t>
+  </si>
+  <si>
+    <t>51381393</t>
+  </si>
+  <si>
+    <t>57625947</t>
+  </si>
+  <si>
+    <t>51266796</t>
+  </si>
+  <si>
+    <t>80504552</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>55850878</t>
+  </si>
+  <si>
+    <t>70057176</t>
   </si>
   <si>
     <t>is not process of</t>
   </si>
   <si>
-    <t>124118165</t>
-  </si>
-  <si>
-    <t>117459771</t>
-  </si>
-  <si>
-    <t>146882467</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>122253539</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>119236225</t>
-  </si>
-  <si>
-    <t>117545241</t>
-  </si>
-  <si>
-    <t>125031454</t>
+    <t>3060646</t>
+  </si>
+  <si>
+    <t>mental depression</t>
+  </si>
+  <si>
+    <t>55154426</t>
+  </si>
+  <si>
+    <t>79715037</t>
+  </si>
+  <si>
+    <t>60685093</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>88226588</t>
+  </si>
+  <si>
+    <t>282421</t>
+  </si>
+  <si>
+    <t>monkeys</t>
+  </si>
+  <si>
+    <t>67446233</t>
+  </si>
+  <si>
+    <t>81808092</t>
+  </si>
+  <si>
+    <t>812094</t>
+  </si>
+  <si>
+    <t>operative surgical procedures</t>
+  </si>
+  <si>
+    <t>64567530</t>
+  </si>
+  <si>
+    <t>92617841</t>
+  </si>
+  <si>
+    <t>76548383</t>
+  </si>
+  <si>
+    <t>613023</t>
+  </si>
+  <si>
+    <t>body tissue</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>63404052</t>
+  </si>
+  <si>
+    <t>produces</t>
+  </si>
+  <si>
+    <t>59727751</t>
+  </si>
+  <si>
+    <t>57632354</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>117883127</t>
+  </si>
+  <si>
+    <t>79540155</t>
+  </si>
+  <si>
+    <t>132721693</t>
+  </si>
+  <si>
+    <t>91228110</t>
+  </si>
+  <si>
+    <t>4040972</t>
+  </si>
+  <si>
+    <t>conjunctiva</t>
+  </si>
+  <si>
+    <t>64536662</t>
+  </si>
+  <si>
+    <t>58849034</t>
+  </si>
+  <si>
+    <t>4040861</t>
+  </si>
+  <si>
+    <t>complication</t>
+  </si>
+  <si>
+    <t>69235153</t>
+  </si>
+  <si>
+    <t>112233802</t>
+  </si>
+  <si>
+    <t>52121578</t>
+  </si>
+  <si>
+    <t>54666747</t>
+  </si>
+  <si>
+    <t>68706111</t>
+  </si>
+  <si>
+    <t>4028790</t>
+  </si>
+  <si>
+    <t>myocardium</t>
+  </si>
+  <si>
+    <t>55367130</t>
+  </si>
+  <si>
+    <t>127595396</t>
+  </si>
+  <si>
+    <t>353782</t>
+  </si>
+  <si>
+    <t>granulocyte-macrophage colony-stimulating factor (homo sapiens)</t>
+  </si>
+  <si>
+    <t>109262676</t>
+  </si>
+  <si>
+    <t>51950592</t>
+  </si>
+  <si>
+    <t>3208634</t>
+  </si>
+  <si>
+    <t>evaluation procedure</t>
+  </si>
+  <si>
+    <t>56540023</t>
+  </si>
+  <si>
+    <t>54135808</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>69825235</t>
+  </si>
+  <si>
+    <t>59496167</t>
+  </si>
+  <si>
+    <t>59964599</t>
+  </si>
+  <si>
+    <t>55683527</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>106863154</t>
+  </si>
+  <si>
+    <t>97029501</t>
+  </si>
+  <si>
+    <t>does not use</t>
+  </si>
+  <si>
+    <t>51276822</t>
+  </si>
+  <si>
+    <t>58706584</t>
+  </si>
+  <si>
+    <t>is method of</t>
+  </si>
+  <si>
+    <t>55264209</t>
+  </si>
+  <si>
+    <t>65523539</t>
+  </si>
+  <si>
+    <t>116216912</t>
+  </si>
+  <si>
+    <t>67483542</t>
+  </si>
+  <si>
+    <t>52386459</t>
+  </si>
+  <si>
+    <t>56733177</t>
+  </si>
+  <si>
+    <t>55872611</t>
+  </si>
+  <si>
+    <t>58315186</t>
+  </si>
+  <si>
+    <t>93198315</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>73832614</t>
+  </si>
+  <si>
+    <t>73972620</t>
+  </si>
+  <si>
+    <t>105298473</t>
+  </si>
+  <si>
+    <t>51727428</t>
+  </si>
+  <si>
+    <t>4047989</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>63404021</t>
+  </si>
+  <si>
+    <t>109366353</t>
+  </si>
+  <si>
+    <t>66549464</t>
+  </si>
+  <si>
+    <t>71878621</t>
+  </si>
+  <si>
+    <t>70042638</t>
+  </si>
+  <si>
+    <t>4028185</t>
+  </si>
+  <si>
+    <t>mother (person)</t>
+  </si>
+  <si>
+    <t>52317613</t>
+  </si>
+  <si>
+    <t>63208321</t>
+  </si>
+  <si>
+    <t>3081595</t>
+  </si>
+  <si>
+    <t>exhaustion, nos</t>
+  </si>
+  <si>
+    <t>52979648</t>
+  </si>
+  <si>
+    <t>60919696</t>
   </si>
   <si>
     <t>301179</t>
@@ -284,55 +1139,655 @@
     <t>child</t>
   </si>
   <si>
-    <t>125362725</t>
-  </si>
-  <si>
-    <t>162004533</t>
-  </si>
-  <si>
-    <t>143656394</t>
-  </si>
-  <si>
-    <t>121736691</t>
+    <t>58977080</t>
+  </si>
+  <si>
+    <t>95869092</t>
+  </si>
+  <si>
+    <t>55354771</t>
   </si>
   <si>
     <t>does not occur in</t>
   </si>
   <si>
-    <t>120042974</t>
-  </si>
-  <si>
-    <t>140357081</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>158907622</t>
-  </si>
-  <si>
-    <t>118774007</t>
-  </si>
-  <si>
-    <t>476523</t>
-  </si>
-  <si>
-    <t>cardiovascular diseases</t>
-  </si>
-  <si>
-    <t>82940327</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>178371647</t>
-  </si>
-  <si>
-    <t>is a</t>
+    <t>77292004</t>
+  </si>
+  <si>
+    <t>53731794</t>
+  </si>
+  <si>
+    <t>73974821</t>
+  </si>
+  <si>
+    <t>2977165</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>63403966</t>
+  </si>
+  <si>
+    <t>87523972</t>
+  </si>
+  <si>
+    <t>2441277</t>
+  </si>
+  <si>
+    <t>excision</t>
+  </si>
+  <si>
+    <t>63403950</t>
+  </si>
+  <si>
+    <t>56870249</t>
+  </si>
+  <si>
+    <t>5792464</t>
+  </si>
+  <si>
+    <t>elderly (population group)</t>
+  </si>
+  <si>
+    <t>103791772</t>
+  </si>
+  <si>
+    <t>78586030</t>
+  </si>
+  <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>62386353</t>
+  </si>
+  <si>
+    <t>16695853</t>
+  </si>
+  <si>
+    <t>79143483</t>
+  </si>
+  <si>
+    <t>119427685</t>
+  </si>
+  <si>
+    <t>5103130</t>
+  </si>
+  <si>
+    <t>bone density</t>
+  </si>
+  <si>
+    <t>127347084</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>68453517</t>
+  </si>
+  <si>
+    <t>47573</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>78253404</t>
+  </si>
+  <si>
+    <t>77896158</t>
+  </si>
+  <si>
+    <t>111593727</t>
+  </si>
+  <si>
+    <t>84176548</t>
+  </si>
+  <si>
+    <t>76075720</t>
+  </si>
+  <si>
+    <t>4041622</t>
+  </si>
+  <si>
+    <t>felis catus</t>
+  </si>
+  <si>
+    <t>57068126</t>
+  </si>
+  <si>
+    <t>54075883</t>
+  </si>
+  <si>
+    <t>71985611</t>
+  </si>
+  <si>
+    <t>80193743</t>
+  </si>
+  <si>
+    <t>4027593</t>
+  </si>
+  <si>
+    <t>macaca mulatta</t>
+  </si>
+  <si>
+    <t>63729514</t>
+  </si>
+  <si>
+    <t>101226345</t>
+  </si>
+  <si>
+    <t>3815757</t>
+  </si>
+  <si>
+    <t>treatment protocols</t>
+  </si>
+  <si>
+    <t>110644557</t>
+  </si>
+  <si>
+    <t>110678365</t>
+  </si>
+  <si>
+    <t>63571651</t>
+  </si>
+  <si>
+    <t>58315597</t>
+  </si>
+  <si>
+    <t>3781901</t>
+  </si>
+  <si>
+    <t>lesion</t>
+  </si>
+  <si>
+    <t>78896799</t>
+  </si>
+  <si>
+    <t>80504770</t>
+  </si>
+  <si>
+    <t>3763784</t>
+  </si>
+  <si>
+    <t>recovery - action</t>
+  </si>
+  <si>
+    <t>Activities &amp; Behaviors</t>
+  </si>
+  <si>
+    <t>60558908</t>
+  </si>
+  <si>
+    <t>does not augment</t>
+  </si>
+  <si>
+    <t>86940914</t>
+  </si>
+  <si>
+    <t>3202301</t>
+  </si>
+  <si>
+    <t>systemic arterial pressure</t>
+  </si>
+  <si>
+    <t>64069235</t>
+  </si>
+  <si>
+    <t>63292678</t>
+  </si>
+  <si>
+    <t>54075938</t>
+  </si>
+  <si>
+    <t>71579017</t>
+  </si>
+  <si>
+    <t>does not disrupt</t>
+  </si>
+  <si>
+    <t>52405500</t>
+  </si>
+  <si>
+    <t>55327381</t>
+  </si>
+  <si>
+    <t>2986464</t>
+  </si>
+  <si>
+    <t>injection procedure</t>
+  </si>
+  <si>
+    <t>86898611</t>
+  </si>
+  <si>
+    <t>86898591</t>
+  </si>
+  <si>
+    <t>115916220</t>
+  </si>
+  <si>
+    <t>2940391</t>
+  </si>
+  <si>
+    <t>tumor necrosis factor-alpha</t>
+  </si>
+  <si>
+    <t>126824468</t>
+  </si>
+  <si>
+    <t>60353590</t>
+  </si>
+  <si>
+    <t>87076998</t>
+  </si>
+  <si>
+    <t>117428314</t>
+  </si>
+  <si>
+    <t>110570143</t>
+  </si>
+  <si>
+    <t>2506281</t>
+  </si>
+  <si>
+    <t>adverse effects</t>
+  </si>
+  <si>
+    <t>98436192</t>
+  </si>
+  <si>
+    <t>58692067</t>
+  </si>
+  <si>
+    <t>59724810</t>
+  </si>
+  <si>
+    <t>76650089</t>
+  </si>
+  <si>
+    <t>58976511</t>
+  </si>
+  <si>
+    <t>110152006</t>
+  </si>
+  <si>
+    <t>96594491</t>
+  </si>
+  <si>
+    <t>102105981</t>
+  </si>
+  <si>
+    <t>249692</t>
+  </si>
+  <si>
+    <t>interferon gamma (homo sapiens)</t>
+  </si>
+  <si>
+    <t>109262741</t>
+  </si>
+  <si>
+    <t>60353726</t>
+  </si>
+  <si>
+    <t>87501447</t>
+  </si>
+  <si>
+    <t>126436738</t>
+  </si>
+  <si>
+    <t>2406105</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>85613467</t>
+  </si>
+  <si>
+    <t>132253783</t>
+  </si>
+  <si>
+    <t>79556397</t>
+  </si>
+  <si>
+    <t>2396875</t>
+  </si>
+  <si>
+    <t>receptor</t>
+  </si>
+  <si>
+    <t>70376170</t>
+  </si>
+  <si>
+    <t>129656807</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>130749669</t>
+  </si>
+  <si>
+    <t>129369033</t>
+  </si>
+  <si>
+    <t>82872379</t>
+  </si>
+  <si>
+    <t>742928</t>
+  </si>
+  <si>
+    <t>amino acids</t>
+  </si>
+  <si>
+    <t>89278635</t>
+  </si>
+  <si>
+    <t>54518906</t>
+  </si>
+  <si>
+    <t>723678</t>
+  </si>
+  <si>
+    <t>animals, laboratory</t>
+  </si>
+  <si>
+    <t>78196286</t>
+  </si>
+  <si>
+    <t>117000116</t>
+  </si>
+  <si>
+    <t>719023</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>133684426</t>
+  </si>
+  <si>
+    <t>89574562</t>
+  </si>
+  <si>
+    <t>603590</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>69442915</t>
+  </si>
+  <si>
+    <t>109335346</t>
+  </si>
+  <si>
+    <t>598940</t>
+  </si>
+  <si>
+    <t>interleukin-3</t>
+  </si>
+  <si>
+    <t>109262583</t>
+  </si>
+  <si>
+    <t>106861764</t>
+  </si>
+  <si>
+    <t>83066978</t>
+  </si>
+  <si>
+    <t>5793192</t>
+  </si>
+  <si>
+    <t>steroids</t>
+  </si>
+  <si>
+    <t>91823878</t>
+  </si>
+  <si>
+    <t>79309365</t>
+  </si>
+  <si>
+    <t>5316514</t>
+  </si>
+  <si>
+    <t>virus diseases</t>
+  </si>
+  <si>
+    <t>88747704</t>
+  </si>
+  <si>
+    <t>102123093</t>
+  </si>
+  <si>
+    <t>113306008</t>
+  </si>
+  <si>
+    <t>86142242</t>
+  </si>
+  <si>
+    <t>4821498</t>
+  </si>
+  <si>
+    <t>cytokine</t>
+  </si>
+  <si>
+    <t>58556142</t>
+  </si>
+  <si>
+    <t>66672227</t>
+  </si>
+  <si>
+    <t>111171252</t>
+  </si>
+  <si>
+    <t>75972727</t>
+  </si>
+  <si>
+    <t>53984337</t>
+  </si>
+  <si>
+    <t>455077</t>
+  </si>
+  <si>
+    <t>caucasoid race</t>
+  </si>
+  <si>
+    <t>117818234</t>
+  </si>
+  <si>
+    <t>122127427</t>
+  </si>
+  <si>
+    <t>45119</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>76843317</t>
+  </si>
+  <si>
+    <t>125788690</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>74009477</t>
+  </si>
+  <si>
+    <t>106483143</t>
+  </si>
+  <si>
+    <t>447781</t>
+  </si>
+  <si>
+    <t>fibrosis</t>
+  </si>
+  <si>
+    <t>120176875</t>
+  </si>
+  <si>
+    <t>62537286</t>
+  </si>
+  <si>
+    <t>88930041</t>
+  </si>
+  <si>
+    <t>56290889</t>
+  </si>
+  <si>
+    <t>4028545</t>
+  </si>
+  <si>
+    <t>ligation</t>
+  </si>
+  <si>
+    <t>67343245</t>
+  </si>
+  <si>
+    <t>126436427</t>
+  </si>
+  <si>
+    <t>4028289</t>
+  </si>
+  <si>
+    <t>physical examination</t>
+  </si>
+  <si>
+    <t>79481111</t>
+  </si>
+  <si>
+    <t>87205033</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>108393988</t>
+  </si>
+  <si>
+    <t>58861842</t>
+  </si>
+  <si>
+    <t>58861297</t>
+  </si>
+  <si>
+    <t>59539208</t>
+  </si>
+  <si>
+    <t>3805896</t>
+  </si>
+  <si>
+    <t>physical findings</t>
+  </si>
+  <si>
+    <t>129912263</t>
+  </si>
+  <si>
+    <t>128008055</t>
+  </si>
+  <si>
+    <t>104610546</t>
+  </si>
+  <si>
+    <t>3761774</t>
+  </si>
+  <si>
+    <t>hypoxia</t>
+  </si>
+  <si>
+    <t>90306521</t>
+  </si>
+  <si>
+    <t>63131575</t>
+  </si>
+  <si>
+    <t>does not predispose</t>
+  </si>
+  <si>
+    <t>74008989</t>
+  </si>
+  <si>
+    <t>3746666</t>
+  </si>
+  <si>
+    <t>survivors</t>
+  </si>
+  <si>
+    <t>51988319</t>
+  </si>
+  <si>
+    <t>94547060</t>
+  </si>
+  <si>
+    <t>3737354</t>
+  </si>
+  <si>
+    <t>prophylactic treatment</t>
+  </si>
+  <si>
+    <t>78738101</t>
+  </si>
+  <si>
+    <t>69840436</t>
+  </si>
+  <si>
+    <t>54967167</t>
+  </si>
+  <si>
+    <t>35277</t>
+  </si>
+  <si>
+    <t>animal model</t>
+  </si>
+  <si>
+    <t>79092431</t>
+  </si>
+  <si>
+    <t>115897599</t>
+  </si>
+  <si>
+    <t>345174</t>
+  </si>
+  <si>
+    <t>interventional procedure</t>
+  </si>
+  <si>
+    <t>130657833</t>
+  </si>
+  <si>
+    <t>132826293</t>
+  </si>
+  <si>
+    <t>2946185</t>
+  </si>
+  <si>
+    <t>imbalance</t>
+  </si>
+  <si>
+    <t>66940073</t>
+  </si>
+  <si>
+    <t>53981207</t>
+  </si>
+  <si>
+    <t>67722352</t>
   </si>
   <si>
     <t>2940375</t>
@@ -341,1393 +1796,25 @@
     <t>symptoms</t>
   </si>
   <si>
-    <t>140392675</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>117927442</t>
-  </si>
-  <si>
-    <t>156722241</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>130354362</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>120419592</t>
-  </si>
-  <si>
-    <t>133101390</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>147641166</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>70205100</t>
-  </si>
-  <si>
-    <t>193649846</t>
-  </si>
-  <si>
-    <t>126734836</t>
-  </si>
-  <si>
-    <t>151857741</t>
-  </si>
-  <si>
-    <t>4028728</t>
-  </si>
-  <si>
-    <t>house mice</t>
-  </si>
-  <si>
-    <t>72090316</t>
-  </si>
-  <si>
-    <t>132338403</t>
-  </si>
-  <si>
-    <t>281347</t>
-  </si>
-  <si>
-    <t>long-term care</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>118471983</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>195825554</t>
-  </si>
-  <si>
-    <t>736321</t>
-  </si>
-  <si>
-    <t>cimetidine</t>
-  </si>
-  <si>
-    <t>134788436</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>137280398</t>
-  </si>
-  <si>
-    <t>80459119</t>
-  </si>
-  <si>
-    <t>5699121</t>
-  </si>
-  <si>
-    <t>body weight decreased</t>
-  </si>
-  <si>
-    <t>82945767</t>
-  </si>
-  <si>
-    <t>133191670</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>120605097</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>136761362</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>134298648</t>
-  </si>
-  <si>
-    <t>124192549</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>143678102</t>
-  </si>
-  <si>
-    <t>118022385</t>
-  </si>
-  <si>
-    <t>143311781</t>
-  </si>
-  <si>
-    <t>134297928</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>136761404</t>
-  </si>
-  <si>
-    <t>120604569</t>
-  </si>
-  <si>
-    <t>129340168</t>
-  </si>
-  <si>
-    <t>82478391</t>
-  </si>
-  <si>
-    <t>42233</t>
-  </si>
-  <si>
-    <t>thrombosis</t>
-  </si>
-  <si>
-    <t>82945518</t>
-  </si>
-  <si>
-    <t>167810714</t>
-  </si>
-  <si>
-    <t>170877491</t>
-  </si>
-  <si>
-    <t>4047758</t>
-  </si>
-  <si>
-    <t>indapamide</t>
-  </si>
-  <si>
-    <t>122697874</t>
-  </si>
-  <si>
-    <t>122697714</t>
-  </si>
-  <si>
-    <t>79328979</t>
-  </si>
-  <si>
-    <t>399716</t>
-  </si>
-  <si>
-    <t>lethargy</t>
-  </si>
-  <si>
-    <t>82943227</t>
-  </si>
-  <si>
-    <t>160947198</t>
-  </si>
-  <si>
-    <t>2422008</t>
-  </si>
-  <si>
-    <t>diamox</t>
-  </si>
-  <si>
-    <t>133468803</t>
-  </si>
-  <si>
-    <t>133468493</t>
-  </si>
-  <si>
-    <t>79356149</t>
-  </si>
-  <si>
-    <t>130253</t>
-  </si>
-  <si>
-    <t>acidosis</t>
-  </si>
-  <si>
-    <t>82939888</t>
-  </si>
-  <si>
-    <t>156822381</t>
-  </si>
-  <si>
-    <t>precedes</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>122926112</t>
-  </si>
-  <si>
-    <t>122753017</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>125502694</t>
-  </si>
-  <si>
-    <t>125812058</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>121425672</t>
-  </si>
-  <si>
-    <t>70195080</t>
-  </si>
-  <si>
-    <t>126946912</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>120875328</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>121687928</t>
-  </si>
-  <si>
-    <t>130980942</t>
-  </si>
-  <si>
-    <t>182440050</t>
-  </si>
-  <si>
-    <t>117469990</t>
-  </si>
-  <si>
-    <t>130981053</t>
-  </si>
-  <si>
-    <t>118643619</t>
-  </si>
-  <si>
-    <t>125118788</t>
-  </si>
-  <si>
-    <t>is method of</t>
-  </si>
-  <si>
-    <t>173084681</t>
-  </si>
-  <si>
-    <t>163264339</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>123228136</t>
-  </si>
-  <si>
-    <t>140444228</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>122253853</t>
-  </si>
-  <si>
-    <t>117953514</t>
-  </si>
-  <si>
-    <t>159426490</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>140184931</t>
-  </si>
-  <si>
-    <t>124743959</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>171496684</t>
-  </si>
-  <si>
-    <t>6107559</t>
-  </si>
-  <si>
-    <t>application procedure</t>
-  </si>
-  <si>
-    <t>121713598</t>
-  </si>
-  <si>
-    <t>175835350</t>
-  </si>
-  <si>
-    <t>4394972</t>
-  </si>
-  <si>
-    <t>neutrophil elastase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>75105404</t>
-  </si>
-  <si>
-    <t>does not inhibit</t>
-  </si>
-  <si>
-    <t>174807480</t>
-  </si>
-  <si>
-    <t>4040981</t>
-  </si>
-  <si>
-    <t>pharmacotherapy</t>
-  </si>
-  <si>
-    <t>174970668</t>
-  </si>
-  <si>
-    <t>149733564</t>
-  </si>
-  <si>
-    <t>121417289</t>
-  </si>
-  <si>
-    <t>124896466</t>
-  </si>
-  <si>
-    <t>685378</t>
-  </si>
-  <si>
-    <t>persons</t>
-  </si>
-  <si>
-    <t>169986724</t>
-  </si>
-  <si>
-    <t>126833719</t>
-  </si>
-  <si>
-    <t>118947926</t>
-  </si>
-  <si>
-    <t>307661</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>136999340</t>
-  </si>
-  <si>
-    <t>128853162</t>
-  </si>
-  <si>
-    <t>124476781</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>120541272</t>
-  </si>
-  <si>
-    <t>118707574</t>
-  </si>
-  <si>
-    <t>3202301</t>
-  </si>
-  <si>
-    <t>systemic arterial pressure</t>
-  </si>
-  <si>
-    <t>137996409</t>
-  </si>
-  <si>
-    <t>does not disrupt</t>
-  </si>
-  <si>
-    <t>120408200</t>
-  </si>
-  <si>
-    <t>118680321</t>
-  </si>
-  <si>
-    <t>129641191</t>
-  </si>
-  <si>
-    <t>130460015</t>
-  </si>
-  <si>
-    <t>121792436</t>
-  </si>
-  <si>
-    <t>4041622</t>
-  </si>
-  <si>
-    <t>felis catus</t>
-  </si>
-  <si>
-    <t>123475515</t>
-  </si>
-  <si>
-    <t>138302286</t>
-  </si>
-  <si>
-    <t>120408098</t>
-  </si>
-  <si>
-    <t>146561784</t>
-  </si>
-  <si>
-    <t>282421</t>
-  </si>
-  <si>
-    <t>monkeys</t>
-  </si>
-  <si>
-    <t>133880853</t>
-  </si>
-  <si>
-    <t>148210880</t>
-  </si>
-  <si>
-    <t>812094</t>
-  </si>
-  <si>
-    <t>operative surgical procedures</t>
-  </si>
-  <si>
-    <t>158812558</t>
-  </si>
-  <si>
-    <t>130912889</t>
-  </si>
-  <si>
-    <t>143035444</t>
-  </si>
-  <si>
-    <t>613023</t>
-  </si>
-  <si>
-    <t>body tissue</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>129776665</t>
-  </si>
-  <si>
-    <t>produces</t>
-  </si>
-  <si>
-    <t>126164556</t>
-  </si>
-  <si>
-    <t>124015244</t>
-  </si>
-  <si>
-    <t>4040972</t>
-  </si>
-  <si>
-    <t>conjunctiva</t>
-  </si>
-  <si>
-    <t>130950055</t>
-  </si>
-  <si>
-    <t>125245935</t>
-  </si>
-  <si>
-    <t>4028790</t>
-  </si>
-  <si>
-    <t>myocardium</t>
-  </si>
-  <si>
-    <t>121782791</t>
-  </si>
-  <si>
-    <t>193748400</t>
-  </si>
-  <si>
-    <t>353782</t>
-  </si>
-  <si>
-    <t>granulocyte-macrophage colony-stimulating factor (homo sapiens)</t>
-  </si>
-  <si>
-    <t>175443750</t>
-  </si>
-  <si>
-    <t>118183791</t>
-  </si>
-  <si>
-    <t>3208634</t>
-  </si>
-  <si>
-    <t>evaluation procedure</t>
-  </si>
-  <si>
-    <t>122926459</t>
-  </si>
-  <si>
-    <t>120529083</t>
-  </si>
-  <si>
-    <t>836328</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>136310524</t>
-  </si>
-  <si>
-    <t>125880993</t>
-  </si>
-  <si>
-    <t>126391518</t>
-  </si>
-  <si>
-    <t>122114102</t>
-  </si>
-  <si>
-    <t>4047989</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>129776558</t>
-  </si>
-  <si>
-    <t>175589756</t>
-  </si>
-  <si>
-    <t>133036320</t>
-  </si>
-  <si>
-    <t>138261285</t>
-  </si>
-  <si>
-    <t>136473710</t>
-  </si>
-  <si>
-    <t>4028185</t>
-  </si>
-  <si>
-    <t>mother (person)</t>
-  </si>
-  <si>
-    <t>118559506</t>
-  </si>
-  <si>
-    <t>126394750</t>
-  </si>
-  <si>
-    <t>3081595</t>
-  </si>
-  <si>
-    <t>exhaustion, nos</t>
-  </si>
-  <si>
-    <t>119263504</t>
-  </si>
-  <si>
-    <t>127313188</t>
-  </si>
-  <si>
-    <t>2977165</t>
-  </si>
-  <si>
-    <t>detection</t>
-  </si>
-  <si>
-    <t>129776388</t>
-  </si>
-  <si>
-    <t>153769366</t>
-  </si>
-  <si>
-    <t>2940391</t>
-  </si>
-  <si>
-    <t>tumor necrosis factor-alpha</t>
-  </si>
-  <si>
-    <t>192975420</t>
-  </si>
-  <si>
-    <t>183633919</t>
-  </si>
-  <si>
-    <t>176793083</t>
-  </si>
-  <si>
-    <t>126789253</t>
-  </si>
-  <si>
-    <t>153466610</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>2441277</t>
-  </si>
-  <si>
-    <t>excision</t>
-  </si>
-  <si>
-    <t>129776321</t>
-  </si>
-  <si>
-    <t>123365674</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>141995396</t>
-  </si>
-  <si>
-    <t>139126139</t>
-  </si>
-  <si>
-    <t>149455648</t>
-  </si>
-  <si>
-    <t>164895301</t>
-  </si>
-  <si>
-    <t>5792464</t>
-  </si>
-  <si>
-    <t>elderly (population group)</t>
-  </si>
-  <si>
-    <t>169987776</t>
-  </si>
-  <si>
-    <t>144976924</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>82943831</t>
-  </si>
-  <si>
-    <t>145546337</t>
-  </si>
-  <si>
-    <t>128774586</t>
-  </si>
-  <si>
-    <t>185625870</t>
-  </si>
-  <si>
-    <t>5103130</t>
-  </si>
-  <si>
-    <t>bone density</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>193563244</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>134868303</t>
-  </si>
-  <si>
-    <t>47573</t>
-  </si>
-  <si>
-    <t>cells</t>
-  </si>
-  <si>
-    <t>177718982</t>
-  </si>
-  <si>
-    <t>142088772</t>
-  </si>
-  <si>
-    <t>150550500</t>
-  </si>
-  <si>
-    <t>144707144</t>
-  </si>
-  <si>
-    <t>142417869</t>
-  </si>
-  <si>
-    <t>4027593</t>
-  </si>
-  <si>
-    <t>macaca mulatta</t>
-  </si>
-  <si>
-    <t>130127070</t>
-  </si>
-  <si>
-    <t>167427928</t>
-  </si>
-  <si>
-    <t>3781901</t>
-  </si>
-  <si>
-    <t>lesion</t>
-  </si>
-  <si>
-    <t>145297244</t>
-  </si>
-  <si>
-    <t>146882797</t>
-  </si>
-  <si>
-    <t>3763784</t>
-  </si>
-  <si>
-    <t>recovery - action</t>
-  </si>
-  <si>
-    <t>Activities &amp; Behaviors</t>
-  </si>
-  <si>
-    <t>126954113</t>
-  </si>
-  <si>
-    <t>does not augment</t>
-  </si>
-  <si>
-    <t>151435890</t>
-  </si>
-  <si>
-    <t>3170822</t>
-  </si>
-  <si>
-    <t>acetazolamide</t>
-  </si>
-  <si>
-    <t>118453503</t>
-  </si>
-  <si>
-    <t>159429259</t>
-  </si>
-  <si>
-    <t>185267331</t>
-  </si>
-  <si>
-    <t>118454244</t>
-  </si>
-  <si>
-    <t>118454375</t>
-  </si>
-  <si>
-    <t>131457133</t>
-  </si>
-  <si>
-    <t>162134473</t>
-  </si>
-  <si>
-    <t>79356147</t>
-  </si>
-  <si>
-    <t>151520496</t>
-  </si>
-  <si>
-    <t>2986464</t>
-  </si>
-  <si>
-    <t>injection procedure</t>
-  </si>
-  <si>
-    <t>153190269</t>
-  </si>
-  <si>
-    <t>153190282</t>
-  </si>
-  <si>
-    <t>182138688</t>
-  </si>
-  <si>
-    <t>2406105</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>152038023</t>
-  </si>
-  <si>
-    <t>198444607</t>
-  </si>
-  <si>
-    <t>145958141</t>
-  </si>
-  <si>
-    <t>2396875</t>
-  </si>
-  <si>
-    <t>receptor</t>
-  </si>
-  <si>
-    <t>136698398</t>
-  </si>
-  <si>
-    <t>195862665</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>196952687</t>
-  </si>
-  <si>
-    <t>149299467</t>
-  </si>
-  <si>
-    <t>195595266</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>742928</t>
-  </si>
-  <si>
-    <t>amino acids</t>
-  </si>
-  <si>
-    <t>155417997</t>
-  </si>
-  <si>
-    <t>120941088</t>
-  </si>
-  <si>
-    <t>723678</t>
-  </si>
-  <si>
-    <t>animals, laboratory</t>
-  </si>
-  <si>
-    <t>144537065</t>
-  </si>
-  <si>
-    <t>183222671</t>
-  </si>
-  <si>
-    <t>719023</t>
-  </si>
-  <si>
-    <t>lung</t>
-  </si>
-  <si>
-    <t>199877856</t>
-  </si>
-  <si>
-    <t>155757332</t>
-  </si>
-  <si>
-    <t>603590</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>135879549</t>
-  </si>
-  <si>
-    <t>175515764</t>
-  </si>
-  <si>
-    <t>598940</t>
-  </si>
-  <si>
-    <t>interleukin-3</t>
-  </si>
-  <si>
-    <t>175443684</t>
-  </si>
-  <si>
-    <t>147557718</t>
-  </si>
-  <si>
-    <t>173050866</t>
-  </si>
-  <si>
-    <t>5793192</t>
-  </si>
-  <si>
-    <t>steroids</t>
-  </si>
-  <si>
-    <t>157994833</t>
-  </si>
-  <si>
-    <t>143611628</t>
-  </si>
-  <si>
-    <t>5316514</t>
-  </si>
-  <si>
-    <t>virus diseases</t>
-  </si>
-  <si>
-    <t>154924410</t>
-  </si>
-  <si>
-    <t>168337056</t>
-  </si>
-  <si>
-    <t>152522083</t>
-  </si>
-  <si>
-    <t>179434384</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>184025464</t>
-  </si>
-  <si>
-    <t>145916108</t>
-  </si>
-  <si>
-    <t>198912738</t>
-  </si>
-  <si>
-    <t>157459753</t>
-  </si>
-  <si>
-    <t>4821498</t>
-  </si>
-  <si>
-    <t>cytokine</t>
-  </si>
-  <si>
-    <t>125002033</t>
-  </si>
-  <si>
-    <t>133161333</t>
-  </si>
-  <si>
-    <t>177344545</t>
-  </si>
-  <si>
-    <t>120389700</t>
-  </si>
-  <si>
-    <t>142361170</t>
-  </si>
-  <si>
-    <t>4747186</t>
-  </si>
-  <si>
-    <t>apoptosis</t>
-  </si>
-  <si>
-    <t>171029957</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>185292624</t>
-  </si>
-  <si>
-    <t>118509702</t>
-  </si>
-  <si>
-    <t>186424897</t>
-  </si>
-  <si>
-    <t>455077</t>
-  </si>
-  <si>
-    <t>caucasoid race</t>
-  </si>
-  <si>
-    <t>183960349</t>
-  </si>
-  <si>
-    <t>188318950</t>
-  </si>
-  <si>
-    <t>45119</t>
-  </si>
-  <si>
-    <t>inflammation</t>
-  </si>
-  <si>
-    <t>191994421</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>143301334</t>
-  </si>
-  <si>
-    <t>140446015</t>
-  </si>
-  <si>
-    <t>172679473</t>
-  </si>
-  <si>
-    <t>447781</t>
-  </si>
-  <si>
-    <t>fibrosis</t>
-  </si>
-  <si>
-    <t>186367807</t>
-  </si>
-  <si>
-    <t>122670444</t>
-  </si>
-  <si>
-    <t>155154402</t>
-  </si>
-  <si>
-    <t>128914847</t>
-  </si>
-  <si>
-    <t>4040861</t>
-  </si>
-  <si>
-    <t>complication</t>
-  </si>
-  <si>
-    <t>135628631</t>
-  </si>
-  <si>
-    <t>178429197</t>
-  </si>
-  <si>
-    <t>118364748</t>
-  </si>
-  <si>
-    <t>121026337</t>
-  </si>
-  <si>
-    <t>135094501</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>168242688</t>
-  </si>
-  <si>
-    <t>135105632</t>
-  </si>
-  <si>
-    <t>122769438</t>
-  </si>
-  <si>
-    <t>127283744</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>124607869</t>
-  </si>
-  <si>
-    <t>140065233</t>
-  </si>
-  <si>
-    <t>does not stimulate</t>
-  </si>
-  <si>
-    <t>120377594</t>
-  </si>
-  <si>
-    <t>125363620</t>
-  </si>
-  <si>
-    <t>147228745</t>
-  </si>
-  <si>
-    <t>149684268</t>
-  </si>
-  <si>
-    <t>173082216</t>
-  </si>
-  <si>
-    <t>122769502</t>
-  </si>
-  <si>
-    <t>153513321</t>
-  </si>
-  <si>
-    <t>118121733</t>
-  </si>
-  <si>
-    <t>132913221</t>
-  </si>
-  <si>
-    <t>131583173</t>
-  </si>
-  <si>
-    <t>186839492</t>
-  </si>
-  <si>
-    <t>198283081</t>
-  </si>
-  <si>
-    <t>183592632</t>
-  </si>
-  <si>
-    <t>4028545</t>
-  </si>
-  <si>
-    <t>ligation</t>
-  </si>
-  <si>
-    <t>133674045</t>
-  </si>
-  <si>
-    <t>192589175</t>
-  </si>
-  <si>
-    <t>4028289</t>
-  </si>
-  <si>
-    <t>physical examination</t>
-  </si>
-  <si>
-    <t>145847420</t>
-  </si>
-  <si>
-    <t>153545824</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>3815757</t>
-  </si>
-  <si>
-    <t>treatment protocols</t>
-  </si>
-  <si>
-    <t>176819743</t>
-  </si>
-  <si>
-    <t>176902633</t>
-  </si>
-  <si>
-    <t>124745382</t>
-  </si>
-  <si>
-    <t>129944752</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>174574069</t>
-  </si>
-  <si>
-    <t>125284519</t>
-  </si>
-  <si>
-    <t>125283841</t>
-  </si>
-  <si>
-    <t>125966969</t>
-  </si>
-  <si>
-    <t>3805896</t>
-  </si>
-  <si>
-    <t>physical findings</t>
-  </si>
-  <si>
-    <t>196134203</t>
-  </si>
-  <si>
-    <t>194216565</t>
-  </si>
-  <si>
-    <t>170726968</t>
-  </si>
-  <si>
-    <t>3761774</t>
-  </si>
-  <si>
-    <t>hypoxia</t>
-  </si>
-  <si>
-    <t>156494826</t>
-  </si>
-  <si>
-    <t>126315553</t>
-  </si>
-  <si>
-    <t>does not predispose</t>
-  </si>
-  <si>
-    <t>140445364</t>
-  </si>
-  <si>
-    <t>3746666</t>
-  </si>
-  <si>
-    <t>survivors</t>
-  </si>
-  <si>
-    <t>118220700</t>
-  </si>
-  <si>
-    <t>160779743</t>
-  </si>
-  <si>
-    <t>3737354</t>
-  </si>
-  <si>
-    <t>prophylactic treatment</t>
-  </si>
-  <si>
-    <t>145134803</t>
-  </si>
-  <si>
-    <t>133557977</t>
-  </si>
-  <si>
-    <t>121337264</t>
-  </si>
-  <si>
-    <t>35277</t>
-  </si>
-  <si>
-    <t>animal model</t>
-  </si>
-  <si>
-    <t>143381113</t>
-  </si>
-  <si>
-    <t>182118866</t>
-  </si>
-  <si>
-    <t>345174</t>
-  </si>
-  <si>
-    <t>interventional procedure</t>
-  </si>
-  <si>
-    <t>196861413</t>
-  </si>
-  <si>
-    <t>199017606</t>
-  </si>
-  <si>
-    <t>3060646</t>
-  </si>
-  <si>
-    <t>mental depression</t>
-  </si>
-  <si>
-    <t>146166467</t>
-  </si>
-  <si>
-    <t>127090313</t>
-  </si>
-  <si>
-    <t>121530229</t>
-  </si>
-  <si>
-    <t>154391503</t>
-  </si>
-  <si>
-    <t>2946185</t>
-  </si>
-  <si>
-    <t>imbalance</t>
-  </si>
-  <si>
-    <t>133283645</t>
-  </si>
-  <si>
-    <t>120386608</t>
-  </si>
-  <si>
-    <t>134168696</t>
+    <t>73984398</t>
+  </si>
+  <si>
+    <t>51703382</t>
+  </si>
+  <si>
+    <t>54061010</t>
+  </si>
+  <si>
+    <t>90551950</t>
+  </si>
+  <si>
+    <t>81226711</t>
+  </si>
+  <si>
+    <t>66611426</t>
+  </si>
+  <si>
+    <t>63987868</t>
   </si>
   <si>
     <t>2718483</t>
@@ -1736,22 +1823,22 @@
     <t>lupus erythematosus, systemic</t>
   </si>
   <si>
-    <t>127562948</t>
-  </si>
-  <si>
-    <t>122626499</t>
-  </si>
-  <si>
-    <t>106325647</t>
-  </si>
-  <si>
-    <t>178155541</t>
-  </si>
-  <si>
-    <t>121792315</t>
-  </si>
-  <si>
-    <t>119241911</t>
+    <t>61158521</t>
+  </si>
+  <si>
+    <t>55386091</t>
+  </si>
+  <si>
+    <t>40133751</t>
+  </si>
+  <si>
+    <t>56255724</t>
+  </si>
+  <si>
+    <t>111981981</t>
+  </si>
+  <si>
+    <t>52937261</t>
   </si>
   <si>
     <t>2634733</t>
@@ -1760,58 +1847,10 @@
     <t>maintenance therapy</t>
   </si>
   <si>
-    <t>125415133</t>
-  </si>
-  <si>
-    <t>130483579</t>
-  </si>
-  <si>
-    <t>2506281</t>
-  </si>
-  <si>
-    <t>adverse effects</t>
-  </si>
-  <si>
-    <t>142992880</t>
-  </si>
-  <si>
-    <t>164634613</t>
-  </si>
-  <si>
-    <t>125362144</t>
-  </si>
-  <si>
-    <t>126161984</t>
-  </si>
-  <si>
-    <t>125098936</t>
-  </si>
-  <si>
-    <t>176337190</t>
-  </si>
-  <si>
-    <t>168293686</t>
-  </si>
-  <si>
-    <t>162827077</t>
-  </si>
-  <si>
-    <t>249692</t>
-  </si>
-  <si>
-    <t>interferon gamma (homo sapiens)</t>
-  </si>
-  <si>
-    <t>175443796</t>
-  </si>
-  <si>
-    <t>192589477</t>
-  </si>
-  <si>
-    <t>126789296</t>
-  </si>
-  <si>
-    <t>153748661</t>
+    <t>59028423</t>
+  </si>
+  <si>
+    <t>64071320</t>
   </si>
   <si>
     <t>2395251</t>
@@ -1820,19 +1859,19 @@
     <t>toxic effect</t>
   </si>
   <si>
-    <t>185292630</t>
-  </si>
-  <si>
-    <t>146198869</t>
-  </si>
-  <si>
-    <t>154083268</t>
-  </si>
-  <si>
-    <t>133982739</t>
-  </si>
-  <si>
-    <t>161234821</t>
+    <t>119083317</t>
+  </si>
+  <si>
+    <t>79799446</t>
+  </si>
+  <si>
+    <t>87869920</t>
+  </si>
+  <si>
+    <t>70233506</t>
+  </si>
+  <si>
+    <t>95038596</t>
   </si>
   <si>
     <t>217103</t>
@@ -1841,10 +1880,10 @@
     <t>putative uncharacterized protein encoded by mir7-3hg (homo sapiens)</t>
   </si>
   <si>
-    <t>122342237</t>
-  </si>
-  <si>
-    <t>195016312</t>
+    <t>55962017</t>
+  </si>
+  <si>
+    <t>128809639</t>
   </si>
   <si>
     <t>141804</t>
@@ -1853,10 +1892,10 @@
     <t>human age group</t>
   </si>
   <si>
-    <t>146487919</t>
-  </si>
-  <si>
-    <t>179157556</t>
+    <t>82005565</t>
+  </si>
+  <si>
+    <t>112961297</t>
   </si>
   <si>
     <t>650553</t>
@@ -1865,13 +1904,13 @@
     <t>infant</t>
   </si>
   <si>
-    <t>125943689</t>
-  </si>
-  <si>
-    <t>133536743</t>
-  </si>
-  <si>
-    <t>117461598</t>
+    <t>59532479</t>
+  </si>
+  <si>
+    <t>67210958</t>
+  </si>
+  <si>
+    <t>51269474</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2115,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>281.0</v>
+        <v>165.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2129,16 +2168,10 @@
       <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>258.0</v>
+        <v>109.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2150,10 +2183,10 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>55</v>
@@ -2168,57 +2201,27 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
       <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109.0</v>
+        <v>33.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -2230,10 +2233,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -2248,27 +2251,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106.0</v>
+        <v>29.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -2280,13 +2277,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -2298,45 +2295,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T5" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2348,10 +2321,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -2366,21 +2339,21 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2392,39 +2365,99 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" t="s">
+        <v>92</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="F7" t="s">
+      <c r="AA7" t="s">
         <v>102</v>
       </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="AB7" t="s">
         <v>103</v>
       </c>
-      <c r="L7" t="s">
+      <c r="AC7" t="s">
         <v>104</v>
       </c>
-      <c r="M7" t="s">
+      <c r="AD7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE7" t="s">
         <v>105</v>
       </c>
-      <c r="N7" t="s">
+      <c r="AF7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="s">
         <v>106</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -2442,7 +2475,7 @@
         <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2457,48 +2490,60 @@
         <v>109</v>
       </c>
       <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
         <v>110</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>111</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
       </c>
       <c r="O8" t="s">
         <v>112</v>
       </c>
       <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
         <v>114</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>99</v>
+      </c>
+      <c r="U8" t="s">
         <v>115</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" t="s">
         <v>116</v>
       </c>
-      <c r="T8" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8" t="s">
         <v>117</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Z8" t="s">
         <v>118</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AA8" t="s">
         <v>119</v>
       </c>
-      <c r="X8" t="s">
-        <v>113</v>
+      <c r="AB8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2516,7 +2561,7 @@
         <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2528,33 +2573,21 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>125</v>
-      </c>
-      <c r="R9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2566,39 +2599,45 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
         <v>126</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>127</v>
       </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="s">
         <v>128</v>
       </c>
-      <c r="L10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
         <v>129</v>
       </c>
-      <c r="N10" t="s">
-        <v>64</v>
+      <c r="P10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2610,13 +2649,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -2631,13 +2670,13 @@
         <v>133</v>
       </c>
       <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="M11" t="s">
-        <v>135</v>
-      </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -2654,40 +2693,40 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
         <v>136</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
         <v>137</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
         <v>138</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
         <v>139</v>
       </c>
-      <c r="M12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N12" t="s">
-        <v>118</v>
-      </c>
-      <c r="O12" t="s">
-        <v>141</v>
-      </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -2704,34 +2743,40 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
         <v>142</v>
       </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" t="s">
         <v>143</v>
       </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
         <v>144</v>
       </c>
-      <c r="L13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13" t="s">
-        <v>113</v>
+      <c r="P13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2748,94 +2793,34 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
         <v>147</v>
       </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="s">
         <v>148</v>
       </c>
-      <c r="L14" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14" t="s">
-        <v>150</v>
-      </c>
       <c r="N14" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" t="s">
-        <v>154</v>
-      </c>
-      <c r="S14" t="s">
-        <v>155</v>
-      </c>
-      <c r="T14" t="s">
-        <v>113</v>
-      </c>
-      <c r="U14" t="s">
-        <v>156</v>
-      </c>
-      <c r="V14" t="s">
-        <v>134</v>
-      </c>
-      <c r="W14" t="s">
-        <v>157</v>
-      </c>
-      <c r="X14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -2852,13 +2837,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
@@ -2870,22 +2855,22 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M15" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="O15" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2902,13 +2887,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2920,27 +2905,21 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" t="s">
-        <v>173</v>
-      </c>
-      <c r="P16" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2952,13 +2931,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2970,21 +2949,21 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="N17" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2996,13 +2975,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -3014,27 +2993,21 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
-      </c>
-      <c r="O18" t="s">
-        <v>182</v>
-      </c>
-      <c r="P18" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -3046,39 +3019,105 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>172</v>
+      </c>
+      <c r="R19" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19" t="s">
+        <v>174</v>
+      </c>
+      <c r="T19" t="s">
+        <v>130</v>
+      </c>
+      <c r="U19" t="s">
+        <v>175</v>
+      </c>
+      <c r="V19" t="s">
+        <v>130</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI19" t="s">
         <v>183</v>
       </c>
-      <c r="F19" t="s">
+      <c r="AJ19" t="s">
         <v>184</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" t="s">
-        <v>186</v>
-      </c>
-      <c r="N19" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -3090,10 +3129,10 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
         <v>55</v>
@@ -3108,21 +3147,27 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
       </c>
+      <c r="O20" t="s">
+        <v>190</v>
+      </c>
+      <c r="P20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -3134,39 +3179,51 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21" t="s">
         <v>192</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
         <v>193</v>
       </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" t="s">
         <v>194</v>
       </c>
-      <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" t="s">
         <v>195</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>196</v>
+      </c>
+      <c r="R21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -3178,13 +3235,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -3196,33 +3253,21 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="M22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s">
-        <v>62</v>
-      </c>
-      <c r="O22" t="s">
-        <v>200</v>
-      </c>
-      <c r="P22" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>202</v>
-      </c>
-      <c r="R22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -3234,124 +3279,34 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" t="s">
         <v>203</v>
       </c>
-      <c r="F23" t="s">
+      <c r="L23" t="s">
         <v>204</v>
       </c>
-      <c r="G23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>205</v>
       </c>
-      <c r="L23" t="s">
-        <v>159</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>206</v>
-      </c>
-      <c r="N23" t="s">
-        <v>159</v>
-      </c>
-      <c r="O23" t="s">
-        <v>207</v>
-      </c>
-      <c r="P23" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>208</v>
-      </c>
-      <c r="R23" t="s">
-        <v>134</v>
-      </c>
-      <c r="S23" t="s">
-        <v>209</v>
-      </c>
-      <c r="T23" t="s">
-        <v>154</v>
-      </c>
-      <c r="U23" t="s">
-        <v>210</v>
-      </c>
-      <c r="V23" t="s">
-        <v>106</v>
-      </c>
-      <c r="W23" t="s">
-        <v>211</v>
-      </c>
-      <c r="X23" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>226</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -3368,13 +3323,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -3386,21 +3341,33 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M24" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>211</v>
+      </c>
+      <c r="P24" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>212</v>
+      </c>
+      <c r="R24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -3412,39 +3379,141 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N25" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" t="s">
+        <v>217</v>
+      </c>
+      <c r="P25" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>218</v>
+      </c>
+      <c r="R25" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" t="s">
+        <v>219</v>
+      </c>
+      <c r="T25" t="s">
+        <v>94</v>
+      </c>
+      <c r="U25" t="s">
+        <v>220</v>
+      </c>
+      <c r="V25" t="s">
+        <v>204</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN25" t="s">
         <v>231</v>
       </c>
-      <c r="F25" t="s">
+      <c r="AO25" t="s">
         <v>232</v>
       </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="AP25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ25" t="s">
         <v>233</v>
       </c>
-      <c r="L25" t="s">
+      <c r="AR25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS25" t="s">
         <v>234</v>
       </c>
-      <c r="M25" t="s">
+      <c r="AT25" t="s">
         <v>235</v>
       </c>
-      <c r="N25" t="s">
-        <v>115</v>
+      <c r="AU25" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -3456,13 +3525,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
         <v>56</v>
@@ -3474,33 +3543,27 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>241</v>
-      </c>
-      <c r="R26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3533,24 +3596,24 @@
         <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M27" t="s">
         <v>245</v>
       </c>
       <c r="N27" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s">
         <v>246</v>
       </c>
       <c r="P27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3583,19 +3646,13 @@
         <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M28" t="s">
         <v>250</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
-      </c>
-      <c r="O28" t="s">
-        <v>251</v>
-      </c>
-      <c r="P28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -3612,39 +3669,51 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" t="s">
         <v>252</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
         <v>253</v>
       </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" t="s">
         <v>254</v>
       </c>
-      <c r="L29" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
+        <v>178</v>
+      </c>
+      <c r="O29" t="s">
         <v>255</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>256</v>
+      </c>
+      <c r="R29" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3656,13 +3725,13 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -3674,40 +3743,28 @@
         <v>58</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="Q30" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R30" t="s">
-        <v>118</v>
-      </c>
-      <c r="S30" t="s">
-        <v>263</v>
-      </c>
-      <c r="T30" t="s">
-        <v>81</v>
-      </c>
-      <c r="U30" t="s">
-        <v>264</v>
-      </c>
-      <c r="V30" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31">
@@ -3745,25 +3802,49 @@
         <v>267</v>
       </c>
       <c r="L31" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="O31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R31" t="s">
-        <v>64</v>
+        <v>178</v>
+      </c>
+      <c r="S31" t="s">
+        <v>272</v>
+      </c>
+      <c r="T31" t="s">
+        <v>66</v>
+      </c>
+      <c r="U31" t="s">
+        <v>273</v>
+      </c>
+      <c r="V31" t="s">
+        <v>274</v>
+      </c>
+      <c r="W31" t="s">
+        <v>275</v>
+      </c>
+      <c r="X31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="32">
@@ -3780,13 +3861,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3798,21 +3879,33 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s">
-        <v>64</v>
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
+        <v>282</v>
+      </c>
+      <c r="P32" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>284</v>
+      </c>
+      <c r="R32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3824,13 +3917,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3842,22 +3935,16 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s">
-        <v>106</v>
-      </c>
-      <c r="O33" t="s">
-        <v>279</v>
-      </c>
-      <c r="P33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -3874,13 +3961,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3892,19 +3979,19 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="M34" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="O34" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P34" t="s">
         <v>64</v>
@@ -3924,13 +4011,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3942,16 +4029,22 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="O35" t="s">
+        <v>300</v>
+      </c>
+      <c r="P35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36">
@@ -3968,13 +4061,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3986,15 +4079,27 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="M36" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s">
+        <v>96</v>
+      </c>
+      <c r="O36" t="s">
+        <v>305</v>
+      </c>
+      <c r="P36" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>306</v>
+      </c>
+      <c r="R36" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4012,14 +4117,14 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
         <v>296</v>
       </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
       <c r="H37" t="s">
         <v>56</v>
       </c>
@@ -4030,16 +4135,16 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="M37" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="N37" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -4056,13 +4161,13 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
         <v>56</v>
@@ -4074,21 +4179,39 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
+        <v>184</v>
+      </c>
+      <c r="O38" t="s">
+        <v>315</v>
+      </c>
+      <c r="P38" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>316</v>
+      </c>
+      <c r="R38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S38" t="s">
+        <v>317</v>
+      </c>
+      <c r="T38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -4100,13 +4223,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -4118,33 +4241,21 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="M39" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="N39" t="s">
-        <v>201</v>
-      </c>
-      <c r="O39" t="s">
-        <v>307</v>
-      </c>
-      <c r="P39" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>308</v>
-      </c>
-      <c r="R39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -4156,13 +4267,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -4174,39 +4285,21 @@
         <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="L40" t="s">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="M40" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="N40" t="s">
-        <v>201</v>
-      </c>
-      <c r="O40" t="s">
-        <v>313</v>
-      </c>
-      <c r="P40" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>314</v>
-      </c>
-      <c r="R40" t="s">
-        <v>115</v>
-      </c>
-      <c r="S40" t="s">
-        <v>315</v>
-      </c>
-      <c r="T40" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
@@ -4218,13 +4311,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -4236,13 +4329,13 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M41" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="N41" t="s">
         <v>64</v>
@@ -4262,13 +4355,13 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F42" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
@@ -4280,16 +4373,28 @@
         <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="M42" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="O42" t="s">
+        <v>334</v>
+      </c>
+      <c r="P42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>335</v>
+      </c>
+      <c r="R42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43">
@@ -4306,13 +4411,13 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F43" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
         <v>56</v>
@@ -4324,16 +4429,106 @@
         <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="M43" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="N43" t="s">
-        <v>60</v>
+        <v>340</v>
+      </c>
+      <c r="O43" t="s">
+        <v>341</v>
+      </c>
+      <c r="P43" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>342</v>
+      </c>
+      <c r="R43" t="s">
+        <v>343</v>
+      </c>
+      <c r="S43" t="s">
+        <v>344</v>
+      </c>
+      <c r="T43" t="s">
+        <v>92</v>
+      </c>
+      <c r="U43" t="s">
+        <v>345</v>
+      </c>
+      <c r="V43" t="s">
+        <v>92</v>
+      </c>
+      <c r="W43" t="s">
+        <v>346</v>
+      </c>
+      <c r="X43" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>355</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -4350,13 +4545,13 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="H44" t="s">
         <v>56</v>
@@ -4368,34 +4563,34 @@
         <v>58</v>
       </c>
       <c r="K44" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="O44" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="P44" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="Q44" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="R44" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="S44" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="T44" t="s">
-        <v>335</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45">
@@ -4412,13 +4607,13 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
         <v>56</v>
@@ -4430,21 +4625,21 @@
         <v>58</v>
       </c>
       <c r="K45" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="M45" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="N45" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -4456,13 +4651,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -4474,33 +4669,21 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M46" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="N46" t="s">
-        <v>159</v>
-      </c>
-      <c r="O46" t="s">
-        <v>344</v>
-      </c>
-      <c r="P46" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>345</v>
-      </c>
-      <c r="R46" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -4512,10 +4695,10 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
         <v>55</v>
@@ -4530,21 +4713,45 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M47" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="N47" t="s">
-        <v>64</v>
+        <v>188</v>
+      </c>
+      <c r="O47" t="s">
+        <v>377</v>
+      </c>
+      <c r="P47" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>379</v>
+      </c>
+      <c r="R47" t="s">
+        <v>178</v>
+      </c>
+      <c r="S47" t="s">
+        <v>380</v>
+      </c>
+      <c r="T47" t="s">
+        <v>66</v>
+      </c>
+      <c r="U47" t="s">
+        <v>381</v>
+      </c>
+      <c r="V47" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -4556,13 +4763,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="F48" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -4574,33 +4781,21 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="N48" t="s">
-        <v>68</v>
-      </c>
-      <c r="O48" t="s">
-        <v>354</v>
-      </c>
-      <c r="P48" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>355</v>
-      </c>
-      <c r="R48" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -4612,13 +4807,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="F49" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="G49" t="s">
-        <v>358</v>
+        <v>122</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -4630,16 +4825,16 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s">
-        <v>360</v>
+        <v>96</v>
       </c>
       <c r="M49" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="N49" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
@@ -4656,13 +4851,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="F50" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="G50" t="s">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4674,34 +4869,16 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s">
-        <v>360</v>
-      </c>
-      <c r="O50" t="s">
-        <v>366</v>
-      </c>
-      <c r="P50" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>367</v>
-      </c>
-      <c r="R50" t="s">
-        <v>68</v>
-      </c>
-      <c r="S50" t="s">
-        <v>368</v>
-      </c>
-      <c r="T50" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51">
@@ -4718,13 +4895,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="F51" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -4736,16 +4913,28 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="M51" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="N51" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="O51" t="s">
+        <v>398</v>
+      </c>
+      <c r="P51" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>399</v>
+      </c>
+      <c r="R51" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52">
@@ -4762,13 +4951,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="G52" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -4780,16 +4969,16 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="N52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
@@ -4806,13 +4995,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="F53" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="G53" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
@@ -4824,16 +5013,34 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="L53" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="M53" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="N53" t="s">
-        <v>118</v>
+        <v>403</v>
+      </c>
+      <c r="O53" t="s">
+        <v>409</v>
+      </c>
+      <c r="P53" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>410</v>
+      </c>
+      <c r="R53" t="s">
+        <v>62</v>
+      </c>
+      <c r="S53" t="s">
+        <v>411</v>
+      </c>
+      <c r="T53" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54">
@@ -4850,13 +5057,13 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="F54" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s">
         <v>56</v>
@@ -4868,58 +5075,28 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" t="s">
+        <v>416</v>
+      </c>
+      <c r="P54" t="s">
         <v>62</v>
       </c>
-      <c r="O54" t="s">
-        <v>387</v>
-      </c>
-      <c r="P54" t="s">
-        <v>113</v>
-      </c>
       <c r="Q54" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="R54" t="s">
-        <v>159</v>
-      </c>
-      <c r="S54" t="s">
-        <v>389</v>
-      </c>
-      <c r="T54" t="s">
-        <v>149</v>
-      </c>
-      <c r="U54" t="s">
-        <v>390</v>
-      </c>
-      <c r="V54" t="s">
-        <v>139</v>
-      </c>
-      <c r="W54" t="s">
-        <v>391</v>
-      </c>
-      <c r="X54" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>335</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55">
@@ -4936,13 +5113,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="F55" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="G55" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
         <v>56</v>
@@ -4954,22 +5131,16 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="M55" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="N55" t="s">
-        <v>134</v>
-      </c>
-      <c r="O55" t="s">
-        <v>398</v>
-      </c>
-      <c r="P55" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
@@ -4986,13 +5157,13 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F56" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="H56" t="s">
         <v>56</v>
@@ -5004,22 +5175,28 @@
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M56" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="N56" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O56" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="P56" t="s">
         <v>64</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>427</v>
+      </c>
+      <c r="R56" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="57">
@@ -5036,13 +5213,13 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="F57" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H57" t="s">
         <v>56</v>
@@ -5054,21 +5231,21 @@
         <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M57" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="N57" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
@@ -5080,13 +5257,13 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="F58" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s">
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="H58" t="s">
         <v>56</v>
@@ -5098,27 +5275,21 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s">
-        <v>110</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="N58" t="s">
-        <v>118</v>
-      </c>
-      <c r="O58" t="s">
-        <v>412</v>
-      </c>
-      <c r="P58" t="s">
-        <v>413</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
@@ -5130,13 +5301,13 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s">
         <v>56</v>
@@ -5148,21 +5319,45 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="L59" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="M59" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="N59" t="s">
-        <v>60</v>
+        <v>130</v>
+      </c>
+      <c r="O59" t="s">
+        <v>442</v>
+      </c>
+      <c r="P59" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>443</v>
+      </c>
+      <c r="R59" t="s">
+        <v>444</v>
+      </c>
+      <c r="S59" t="s">
+        <v>445</v>
+      </c>
+      <c r="T59" t="s">
+        <v>64</v>
+      </c>
+      <c r="U59" t="s">
+        <v>446</v>
+      </c>
+      <c r="V59" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -5174,13 +5369,13 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="H60" t="s">
         <v>56</v>
@@ -5192,21 +5387,27 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="M60" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="N60" t="s">
-        <v>68</v>
+        <v>82</v>
+      </c>
+      <c r="O60" t="s">
+        <v>451</v>
+      </c>
+      <c r="P60" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -5218,13 +5419,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="F61" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G61" t="s">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -5236,21 +5437,39 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="M61" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="N61" t="s">
-        <v>115</v>
+        <v>206</v>
+      </c>
+      <c r="O61" t="s">
+        <v>456</v>
+      </c>
+      <c r="P61" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>457</v>
+      </c>
+      <c r="R61" t="s">
+        <v>235</v>
+      </c>
+      <c r="S61" t="s">
+        <v>458</v>
+      </c>
+      <c r="T61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
@@ -5262,10 +5481,10 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="F62" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="G62" t="s">
         <v>58</v>
@@ -5280,21 +5499,57 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="L62" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M62" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="N62" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="O62" t="s">
+        <v>463</v>
+      </c>
+      <c r="P62" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>464</v>
+      </c>
+      <c r="R62" t="s">
+        <v>262</v>
+      </c>
+      <c r="S62" t="s">
+        <v>465</v>
+      </c>
+      <c r="T62" t="s">
+        <v>64</v>
+      </c>
+      <c r="U62" t="s">
+        <v>466</v>
+      </c>
+      <c r="V62" t="s">
+        <v>178</v>
+      </c>
+      <c r="W62" t="s">
+        <v>467</v>
+      </c>
+      <c r="X62" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B63" t="s">
         <v>50</v>
@@ -5306,10 +5561,10 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="F63" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="G63" t="s">
         <v>52</v>
@@ -5324,27 +5579,33 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="L63" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="M63" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="N63" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="O63" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="P63" t="s">
-        <v>118</v>
+        <v>298</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>474</v>
+      </c>
+      <c r="R63" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B64" t="s">
         <v>50</v>
@@ -5356,13 +5617,13 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="F64" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -5374,21 +5635,27 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="L64" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="M64" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="N64" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="O64" t="s">
+        <v>479</v>
+      </c>
+      <c r="P64" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -5400,13 +5667,13 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="F65" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="G65" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s">
         <v>56</v>
@@ -5418,28 +5685,16 @@
         <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="L65" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="M65" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="N65" t="s">
-        <v>113</v>
-      </c>
-      <c r="O65" t="s">
-        <v>443</v>
-      </c>
-      <c r="P65" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>444</v>
-      </c>
-      <c r="R65" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66">
@@ -5456,13 +5711,13 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="F66" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="H66" t="s">
         <v>56</v>
@@ -5474,28 +5729,22 @@
         <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="L66" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="M66" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="N66" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="O66" t="s">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="P66" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>450</v>
-      </c>
-      <c r="R66" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
@@ -5512,10 +5761,10 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="F67" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="G67" t="s">
         <v>52</v>
@@ -5530,34 +5779,16 @@
         <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="L67" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="M67" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="N67" t="s">
-        <v>68</v>
-      </c>
-      <c r="O67" t="s">
-        <v>455</v>
-      </c>
-      <c r="P67" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>456</v>
-      </c>
-      <c r="R67" t="s">
-        <v>118</v>
-      </c>
-      <c r="S67" t="s">
-        <v>457</v>
-      </c>
-      <c r="T67" t="s">
-        <v>335</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
@@ -5574,13 +5805,13 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="F68" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="G68" t="s">
-        <v>358</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
         <v>56</v>
@@ -5592,28 +5823,16 @@
         <v>58</v>
       </c>
       <c r="K68" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="L68" t="s">
-        <v>461</v>
+        <v>62</v>
       </c>
       <c r="M68" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="N68" t="s">
-        <v>118</v>
-      </c>
-      <c r="O68" t="s">
-        <v>463</v>
-      </c>
-      <c r="P68" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>464</v>
-      </c>
-      <c r="R68" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69">
@@ -5630,13 +5849,13 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="F69" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="G69" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="H69" t="s">
         <v>56</v>
@@ -5648,16 +5867,16 @@
         <v>58</v>
       </c>
       <c r="K69" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="L69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M69" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="N69" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
@@ -5674,10 +5893,10 @@
         <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="F70" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="G70" t="s">
         <v>58</v>
@@ -5692,28 +5911,16 @@
         <v>58</v>
       </c>
       <c r="K70" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="L70" t="s">
-        <v>472</v>
+        <v>235</v>
       </c>
       <c r="M70" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="N70" t="s">
-        <v>60</v>
-      </c>
-      <c r="O70" t="s">
-        <v>474</v>
-      </c>
-      <c r="P70" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>475</v>
-      </c>
-      <c r="R70" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
@@ -5730,13 +5937,13 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="F71" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="G71" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s">
         <v>56</v>
@@ -5748,28 +5955,22 @@
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="L71" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="M71" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="N71" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="O71" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="P71" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>481</v>
-      </c>
-      <c r="R71" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72">
@@ -5786,13 +5987,13 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s">
         <v>56</v>
@@ -5804,34 +6005,16 @@
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="L72" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="M72" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="N72" t="s">
-        <v>218</v>
-      </c>
-      <c r="O72" t="s">
-        <v>486</v>
-      </c>
-      <c r="P72" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>487</v>
-      </c>
-      <c r="R72" t="s">
-        <v>118</v>
-      </c>
-      <c r="S72" t="s">
-        <v>488</v>
-      </c>
-      <c r="T72" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73">
@@ -5848,13 +6031,13 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="F73" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H73" t="s">
         <v>56</v>
@@ -5866,118 +6049,28 @@
         <v>58</v>
       </c>
       <c r="K73" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="L73" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="M73" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="N73" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="O73" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="P73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q73" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="R73" t="s">
-        <v>495</v>
-      </c>
-      <c r="S73" t="s">
-        <v>496</v>
-      </c>
-      <c r="T73" t="s">
-        <v>62</v>
-      </c>
-      <c r="U73" t="s">
-        <v>497</v>
-      </c>
-      <c r="V73" t="s">
-        <v>498</v>
-      </c>
-      <c r="W73" t="s">
-        <v>499</v>
-      </c>
-      <c r="X73" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>500</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>501</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>502</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>504</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>505</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>506</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>507</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>508</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>509</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>335</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>510</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU73" t="s">
-        <v>511</v>
-      </c>
-      <c r="AV73" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
@@ -5994,13 +6087,13 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F74" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G74" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s">
         <v>56</v>
@@ -6012,16 +6105,34 @@
         <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L74" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="M74" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N74" t="s">
-        <v>461</v>
+        <v>178</v>
+      </c>
+      <c r="O74" t="s">
+        <v>524</v>
+      </c>
+      <c r="P74" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>525</v>
+      </c>
+      <c r="R74" t="s">
+        <v>118</v>
+      </c>
+      <c r="S74" t="s">
+        <v>526</v>
+      </c>
+      <c r="T74" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -6038,13 +6149,13 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="F75" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="G75" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H75" t="s">
         <v>56</v>
@@ -6056,16 +6167,16 @@
         <v>58</v>
       </c>
       <c r="K75" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="L75" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M75" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="N75" t="s">
-        <v>520</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76">
@@ -6082,13 +6193,13 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="F76" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G76" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
@@ -6100,28 +6211,28 @@
         <v>58</v>
       </c>
       <c r="K76" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L76" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M76" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="N76" t="s">
-        <v>159</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="P76" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="Q76" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="R76" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77">
@@ -6138,13 +6249,13 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="F77" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
@@ -6156,28 +6267,28 @@
         <v>58</v>
       </c>
       <c r="K77" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="L77" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="M77" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="N77" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O77" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="P77" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="Q77" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="R77" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
@@ -6194,13 +6305,13 @@
         <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="F78" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H78" t="s">
         <v>56</v>
@@ -6212,22 +6323,16 @@
         <v>58</v>
       </c>
       <c r="K78" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="L78" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M78" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="N78" t="s">
-        <v>115</v>
-      </c>
-      <c r="O78" t="s">
-        <v>537</v>
-      </c>
-      <c r="P78" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79">
@@ -6244,13 +6349,13 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="F79" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="G79" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
@@ -6262,22 +6367,16 @@
         <v>58</v>
       </c>
       <c r="K79" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="L79" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M79" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="N79" t="s">
-        <v>542</v>
-      </c>
-      <c r="O79" t="s">
-        <v>543</v>
-      </c>
-      <c r="P79" t="s">
-        <v>118</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80">
@@ -6294,13 +6393,13 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="F80" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="G80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s">
         <v>56</v>
@@ -6312,16 +6411,28 @@
         <v>58</v>
       </c>
       <c r="K80" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="L80" t="s">
+        <v>103</v>
+      </c>
+      <c r="M80" t="s">
+        <v>556</v>
+      </c>
+      <c r="N80" t="s">
         <v>60</v>
       </c>
-      <c r="M80" t="s">
-        <v>547</v>
-      </c>
-      <c r="N80" t="s">
-        <v>64</v>
+      <c r="O80" t="s">
+        <v>557</v>
+      </c>
+      <c r="P80" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>558</v>
+      </c>
+      <c r="R80" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="81">
@@ -6338,13 +6449,13 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="F81" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G81" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -6356,22 +6467,22 @@
         <v>58</v>
       </c>
       <c r="K81" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="L81" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="M81" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="N81" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O81" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="P81" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
@@ -6388,13 +6499,13 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F82" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="G82" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H82" t="s">
         <v>56</v>
@@ -6406,16 +6517,22 @@
         <v>58</v>
       </c>
       <c r="K82" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="M82" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="N82" t="s">
-        <v>68</v>
+        <v>568</v>
+      </c>
+      <c r="O82" t="s">
+        <v>569</v>
+      </c>
+      <c r="P82" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="83">
@@ -6432,13 +6549,13 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="F83" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="G83" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
@@ -6450,16 +6567,16 @@
         <v>58</v>
       </c>
       <c r="K83" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="L83" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M83" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="N83" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84">
@@ -6476,13 +6593,13 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F84" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="G84" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H84" t="s">
         <v>56</v>
@@ -6494,28 +6611,22 @@
         <v>58</v>
       </c>
       <c r="K84" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="L84" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M84" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="N84" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="O84" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="P84" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>566</v>
-      </c>
-      <c r="R84" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85">
@@ -6532,13 +6643,13 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="F85" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="G85" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H85" t="s">
         <v>56</v>
@@ -6550,22 +6661,16 @@
         <v>58</v>
       </c>
       <c r="K85" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="L85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M85" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="N85" t="s">
-        <v>118</v>
-      </c>
-      <c r="O85" t="s">
-        <v>571</v>
-      </c>
-      <c r="P85" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86">
@@ -6582,13 +6687,13 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F86" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G86" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H86" t="s">
         <v>56</v>
@@ -6600,40 +6705,16 @@
         <v>58</v>
       </c>
       <c r="K86" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="L86" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="M86" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="N86" t="s">
-        <v>113</v>
-      </c>
-      <c r="O86" t="s">
-        <v>576</v>
-      </c>
-      <c r="P86" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>577</v>
-      </c>
-      <c r="R86" t="s">
-        <v>118</v>
-      </c>
-      <c r="S86" t="s">
-        <v>578</v>
-      </c>
-      <c r="T86" t="s">
-        <v>218</v>
-      </c>
-      <c r="U86" t="s">
-        <v>579</v>
-      </c>
-      <c r="V86" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87">
@@ -6650,13 +6731,13 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F87" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="H87" t="s">
         <v>56</v>
@@ -6668,16 +6749,22 @@
         <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="L87" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M87" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="N87" t="s">
-        <v>60</v>
+        <v>130</v>
+      </c>
+      <c r="O87" t="s">
+        <v>591</v>
+      </c>
+      <c r="P87" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="88">
@@ -6694,10 +6781,10 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F88" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G88" t="s">
         <v>58</v>
@@ -6712,52 +6799,46 @@
         <v>58</v>
       </c>
       <c r="K88" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="L88" t="s">
-        <v>461</v>
+        <v>235</v>
       </c>
       <c r="M88" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="N88" t="s">
-        <v>335</v>
+        <v>64</v>
       </c>
       <c r="O88" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="P88" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="Q88" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="R88" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="S88" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="T88" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="U88" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="V88" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="W88" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="X88" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>593</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -6774,13 +6855,13 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F89" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="G89" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H89" t="s">
         <v>56</v>
@@ -6792,28 +6873,40 @@
         <v>58</v>
       </c>
       <c r="K89" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="L89" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M89" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="N89" t="s">
-        <v>461</v>
+        <v>184</v>
       </c>
       <c r="O89" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="P89" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="Q89" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="R89" t="s">
-        <v>284</v>
+        <v>103</v>
+      </c>
+      <c r="S89" t="s">
+        <v>607</v>
+      </c>
+      <c r="T89" t="s">
+        <v>130</v>
+      </c>
+      <c r="U89" t="s">
+        <v>608</v>
+      </c>
+      <c r="V89" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="90">
@@ -6830,13 +6923,13 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="F90" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="G90" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="H90" t="s">
         <v>56</v>
@@ -6848,34 +6941,16 @@
         <v>58</v>
       </c>
       <c r="K90" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="L90" t="s">
-        <v>461</v>
+        <v>96</v>
       </c>
       <c r="M90" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="N90" t="s">
-        <v>335</v>
-      </c>
-      <c r="O90" t="s">
-        <v>604</v>
-      </c>
-      <c r="P90" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>605</v>
-      </c>
-      <c r="R90" t="s">
-        <v>113</v>
-      </c>
-      <c r="S90" t="s">
-        <v>606</v>
-      </c>
-      <c r="T90" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
@@ -6892,13 +6967,13 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F91" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G91" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H91" t="s">
         <v>56</v>
@@ -6910,16 +6985,34 @@
         <v>58</v>
       </c>
       <c r="K91" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="L91" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="M91" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="N91" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="O91" t="s">
+        <v>617</v>
+      </c>
+      <c r="P91" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>618</v>
+      </c>
+      <c r="R91" t="s">
+        <v>103</v>
+      </c>
+      <c r="S91" t="s">
+        <v>619</v>
+      </c>
+      <c r="T91" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="92">
@@ -6936,13 +7029,13 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="F92" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="G92" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H92" t="s">
         <v>56</v>
@@ -6954,21 +7047,21 @@
         <v>58</v>
       </c>
       <c r="K92" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="L92" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M92" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="N92" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -6980,10 +7073,10 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F93" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="G93" t="s">
         <v>55</v>
@@ -6998,22 +7091,66 @@
         <v>58</v>
       </c>
       <c r="K93" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="L93" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M93" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="N93" t="s">
         <v>66</v>
       </c>
-      <c r="O93" t="s">
-        <v>619</v>
-      </c>
-      <c r="P93" t="s">
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" t="s">
+        <v>628</v>
+      </c>
+      <c r="F94" t="s">
+        <v>629</v>
+      </c>
+      <c r="G94" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K94" t="s">
+        <v>630</v>
+      </c>
+      <c r="L94" t="s">
         <v>64</v>
+      </c>
+      <c r="M94" t="s">
+        <v>631</v>
+      </c>
+      <c r="N94" t="s">
+        <v>71</v>
+      </c>
+      <c r="O94" t="s">
+        <v>632</v>
+      </c>
+      <c r="P94" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
